--- a/Code/Results/Cases/Case_1_250/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_250/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.011391971523088</v>
+        <v>1.035028059928562</v>
       </c>
       <c r="D2">
-        <v>1.050201274193375</v>
+        <v>1.057011448613013</v>
       </c>
       <c r="E2">
-        <v>1.028491918124634</v>
+        <v>1.04566472178648</v>
       </c>
       <c r="F2">
-        <v>1.044625730044393</v>
+        <v>1.060281771490329</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058429436132204</v>
+        <v>1.045283661352341</v>
       </c>
       <c r="J2">
-        <v>1.033237208762566</v>
+        <v>1.040144076187173</v>
       </c>
       <c r="K2">
-        <v>1.0610028738225</v>
+        <v>1.059747587309296</v>
       </c>
       <c r="L2">
-        <v>1.039568088401845</v>
+        <v>1.048432325941727</v>
       </c>
       <c r="M2">
-        <v>1.055496489257866</v>
+        <v>1.063008976688834</v>
       </c>
       <c r="N2">
-        <v>1.0149390594877</v>
+        <v>1.017343175891039</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.015171234028851</v>
+        <v>1.035833833300696</v>
       </c>
       <c r="D3">
-        <v>1.053226384032469</v>
+        <v>1.057665588844467</v>
       </c>
       <c r="E3">
-        <v>1.031599111770482</v>
+        <v>1.046374937793173</v>
       </c>
       <c r="F3">
-        <v>1.048053982471238</v>
+        <v>1.061060692479221</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059697473603531</v>
+        <v>1.045491370423923</v>
       </c>
       <c r="J3">
-        <v>1.035256689826566</v>
+        <v>1.040593953281818</v>
       </c>
       <c r="K3">
-        <v>1.063220675103034</v>
+        <v>1.060215885651222</v>
       </c>
       <c r="L3">
-        <v>1.041843030858851</v>
+        <v>1.04895429187881</v>
       </c>
       <c r="M3">
-        <v>1.058106818557662</v>
+        <v>1.063602382099445</v>
       </c>
       <c r="N3">
-        <v>1.015614839095756</v>
+        <v>1.017493037134781</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.017572989892154</v>
+        <v>1.036355889862425</v>
       </c>
       <c r="D4">
-        <v>1.055149278898502</v>
+        <v>1.058089138637627</v>
       </c>
       <c r="E4">
-        <v>1.033579034023682</v>
+        <v>1.046835432628432</v>
       </c>
       <c r="F4">
-        <v>1.050237029541274</v>
+        <v>1.061565586365778</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060492890245827</v>
+        <v>1.04562465181476</v>
       </c>
       <c r="J4">
-        <v>1.036537613911185</v>
+        <v>1.040885042955679</v>
       </c>
       <c r="K4">
-        <v>1.064624723242658</v>
+        <v>1.06051849634747</v>
       </c>
       <c r="L4">
-        <v>1.043288401630605</v>
+        <v>1.049292300960236</v>
       </c>
       <c r="M4">
-        <v>1.0597647107845</v>
+        <v>1.063986572322483</v>
       </c>
       <c r="N4">
-        <v>1.016043409464744</v>
+        <v>1.017589977699219</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.018572543154646</v>
+        <v>1.03657552043244</v>
       </c>
       <c r="D5">
-        <v>1.055949592296548</v>
+        <v>1.058267263319815</v>
       </c>
       <c r="E5">
-        <v>1.034404262597448</v>
+        <v>1.047029247172702</v>
       </c>
       <c r="F5">
-        <v>1.05114657174655</v>
+        <v>1.061778052288148</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060821382521845</v>
+        <v>1.045680414191537</v>
       </c>
       <c r="J5">
-        <v>1.037070085798463</v>
+        <v>1.041007413154273</v>
       </c>
       <c r="K5">
-        <v>1.06520771850324</v>
+        <v>1.060645614219436</v>
       </c>
       <c r="L5">
-        <v>1.043889811534237</v>
+        <v>1.049434461252326</v>
       </c>
       <c r="M5">
-        <v>1.060454410236181</v>
+        <v>1.064148136148064</v>
       </c>
       <c r="N5">
-        <v>1.016221545746415</v>
+        <v>1.017630723940533</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018739786478285</v>
+        <v>1.03661240658502</v>
       </c>
       <c r="D6">
-        <v>1.056083500799732</v>
+        <v>1.05829717495175</v>
       </c>
       <c r="E6">
-        <v>1.034542409753908</v>
+        <v>1.047061802479321</v>
       </c>
       <c r="F6">
-        <v>1.051298812946717</v>
+        <v>1.061813738418086</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060876194768199</v>
+        <v>1.045689761131738</v>
       </c>
       <c r="J6">
-        <v>1.037159140943533</v>
+        <v>1.041027959382734</v>
       </c>
       <c r="K6">
-        <v>1.06530518436214</v>
+        <v>1.060666951978688</v>
       </c>
       <c r="L6">
-        <v>1.043990430478118</v>
+        <v>1.04945833414038</v>
       </c>
       <c r="M6">
-        <v>1.060569792171324</v>
+        <v>1.064175266321325</v>
       </c>
       <c r="N6">
-        <v>1.016251337685842</v>
+        <v>1.017637564956152</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.017586385429541</v>
+        <v>1.036358823958261</v>
       </c>
       <c r="D7">
-        <v>1.05516000418023</v>
+        <v>1.058091518498073</v>
       </c>
       <c r="E7">
-        <v>1.033590088521298</v>
+        <v>1.046838021515973</v>
       </c>
       <c r="F7">
-        <v>1.05024921485127</v>
+        <v>1.061568424529114</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060497302625158</v>
+        <v>1.045625397972983</v>
       </c>
       <c r="J7">
-        <v>1.036544752317937</v>
+        <v>1.040886678089211</v>
       </c>
       <c r="K7">
-        <v>1.064632541599623</v>
+        <v>1.060520195296317</v>
       </c>
       <c r="L7">
-        <v>1.043296461946286</v>
+        <v>1.049294200274139</v>
       </c>
       <c r="M7">
-        <v>1.059773954944194</v>
+        <v>1.063988730950962</v>
       </c>
       <c r="N7">
-        <v>1.016045797661649</v>
+        <v>1.017590522182829</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.012678427251354</v>
+        <v>1.035300235580517</v>
       </c>
       <c r="D8">
-        <v>1.051230902079971</v>
+        <v>1.05723245971859</v>
       </c>
       <c r="E8">
-        <v>1.029548478644834</v>
+        <v>1.04590454730874</v>
       </c>
       <c r="F8">
-        <v>1.045791767065793</v>
+        <v>1.060544828016361</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058863234938647</v>
+        <v>1.045354089007794</v>
       </c>
       <c r="J8">
-        <v>1.03392514036354</v>
+        <v>1.040296115734756</v>
       </c>
       <c r="K8">
-        <v>1.061758910444802</v>
+        <v>1.059905934787954</v>
       </c>
       <c r="L8">
-        <v>1.040342536714407</v>
+        <v>1.048608671578133</v>
       </c>
       <c r="M8">
-        <v>1.056385227587499</v>
+        <v>1.063209474791101</v>
       </c>
       <c r="N8">
-        <v>1.015169274869038</v>
+        <v>1.017393828065536</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.003680754714651</v>
+        <v>1.033440056459146</v>
       </c>
       <c r="D9">
-        <v>1.044033268930182</v>
+        <v>1.055720902557661</v>
       </c>
       <c r="E9">
-        <v>1.022182387505777</v>
+        <v>1.044266913243713</v>
       </c>
       <c r="F9">
-        <v>1.037656280607959</v>
+        <v>1.058747953136286</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055786685192899</v>
+        <v>1.044867468968083</v>
       </c>
       <c r="J9">
-        <v>1.029104202239877</v>
+        <v>1.039255443193112</v>
       </c>
       <c r="K9">
-        <v>1.056450165902575</v>
+        <v>1.058820462358437</v>
       </c>
       <c r="L9">
-        <v>1.034925538309627</v>
+        <v>1.047402757038516</v>
       </c>
       <c r="M9">
-        <v>1.050166588060877</v>
+        <v>1.061838067135487</v>
       </c>
       <c r="N9">
-        <v>1.013555753786352</v>
+        <v>1.017047021177872</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9974259155540496</v>
+        <v>1.032203530947369</v>
       </c>
       <c r="D10">
-        <v>1.039036793869905</v>
+        <v>1.05471480828291</v>
       </c>
       <c r="E10">
-        <v>1.017093382566115</v>
+        <v>1.043180159074576</v>
       </c>
       <c r="F10">
-        <v>1.0320278982683</v>
+        <v>1.057554757340729</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053595812635064</v>
+        <v>1.044537369677321</v>
       </c>
       <c r="J10">
-        <v>1.025742035170035</v>
+        <v>1.038561721010026</v>
       </c>
       <c r="K10">
-        <v>1.052735268999989</v>
+        <v>1.058094847135318</v>
       </c>
       <c r="L10">
-        <v>1.031160720135358</v>
+        <v>1.046600298424307</v>
       </c>
       <c r="M10">
-        <v>1.045841994997047</v>
+        <v>1.060925070644591</v>
       </c>
       <c r="N10">
-        <v>1.012430298587311</v>
+        <v>1.01681570539882</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9946515486726043</v>
+        <v>1.031668976356069</v>
       </c>
       <c r="D11">
-        <v>1.036823021652916</v>
+        <v>1.054279566108471</v>
       </c>
       <c r="E11">
-        <v>1.014844173982167</v>
+        <v>1.042710793481823</v>
       </c>
       <c r="F11">
-        <v>1.029538430596562</v>
+        <v>1.057039236904476</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052612230917759</v>
+        <v>1.044393096042548</v>
       </c>
       <c r="J11">
-        <v>1.024248534695986</v>
+        <v>1.038261362047834</v>
       </c>
       <c r="K11">
-        <v>1.051082388053783</v>
+        <v>1.057780201287652</v>
       </c>
       <c r="L11">
-        <v>1.029491477216081</v>
+        <v>1.046253196001099</v>
       </c>
       <c r="M11">
-        <v>1.043923996396563</v>
+        <v>1.060530057666563</v>
       </c>
       <c r="N11">
-        <v>1.011930349425193</v>
+        <v>1.01671552261301</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9936106461412584</v>
+        <v>1.031470551342027</v>
       </c>
       <c r="D12">
-        <v>1.035992880940524</v>
+        <v>1.054117960462503</v>
       </c>
       <c r="E12">
-        <v>1.014001560745281</v>
+        <v>1.042536633411119</v>
       </c>
       <c r="F12">
-        <v>1.028605528256232</v>
+        <v>1.056847923294201</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052241480500639</v>
+        <v>1.044339306223258</v>
       </c>
       <c r="J12">
-        <v>1.023687898252457</v>
+        <v>1.038149800772922</v>
       </c>
       <c r="K12">
-        <v>1.050461541869277</v>
+        <v>1.057663261869348</v>
       </c>
       <c r="L12">
-        <v>1.02886534086863</v>
+        <v>1.046124323444267</v>
       </c>
       <c r="M12">
-        <v>1.043204472195323</v>
+        <v>1.060383382202323</v>
       </c>
       <c r="N12">
-        <v>1.011742676728371</v>
+        <v>1.01667830750512</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9938344007320294</v>
+        <v>1.031513108162721</v>
       </c>
       <c r="D13">
-        <v>1.036171308958403</v>
+        <v>1.054152622552414</v>
       </c>
       <c r="E13">
-        <v>1.014182633024599</v>
+        <v>1.042573983014803</v>
       </c>
       <c r="F13">
-        <v>1.028806015842663</v>
+        <v>1.05688895282082</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052321254920365</v>
+        <v>1.044350853365293</v>
       </c>
       <c r="J13">
-        <v>1.023808426698032</v>
+        <v>1.038173730778894</v>
       </c>
       <c r="K13">
-        <v>1.050595031323015</v>
+        <v>1.057688348729564</v>
       </c>
       <c r="L13">
-        <v>1.028999929483051</v>
+        <v>1.046151964453083</v>
       </c>
       <c r="M13">
-        <v>1.043359138103428</v>
+        <v>1.060414842298558</v>
       </c>
       <c r="N13">
-        <v>1.011783023498608</v>
+        <v>1.016686290389418</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9945657218675342</v>
+        <v>1.031652571772016</v>
       </c>
       <c r="D14">
-        <v>1.036754563805226</v>
+        <v>1.054266206444717</v>
       </c>
       <c r="E14">
-        <v>1.01477467110644</v>
+        <v>1.042696393607083</v>
       </c>
       <c r="F14">
-        <v>1.029461485968814</v>
+        <v>1.057023419307118</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.052581695765773</v>
+        <v>1.044388653837332</v>
       </c>
       <c r="J14">
-        <v>1.02420231369271</v>
+        <v>1.038252140239953</v>
       </c>
       <c r="K14">
-        <v>1.051031210732363</v>
+        <v>1.057770536374688</v>
       </c>
       <c r="L14">
-        <v>1.029439846557695</v>
+        <v>1.046242542189059</v>
       </c>
       <c r="M14">
-        <v>1.04386466663325</v>
+        <v>1.060517932397764</v>
       </c>
       <c r="N14">
-        <v>1.011914876953818</v>
+        <v>1.016712446454161</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.995014923215697</v>
+        <v>1.03173851749736</v>
       </c>
       <c r="D15">
-        <v>1.037112877444273</v>
+        <v>1.054336197597162</v>
       </c>
       <c r="E15">
-        <v>1.015138487664186</v>
+        <v>1.042771839149804</v>
       </c>
       <c r="F15">
-        <v>1.029864245277915</v>
+        <v>1.057106291620481</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.052741440955166</v>
+        <v>1.044411917459159</v>
       </c>
       <c r="J15">
-        <v>1.024444213829749</v>
+        <v>1.038300451653816</v>
       </c>
       <c r="K15">
-        <v>1.051299034644812</v>
+        <v>1.057821166205898</v>
       </c>
       <c r="L15">
-        <v>1.029710077644173</v>
+        <v>1.04629835768576</v>
       </c>
       <c r="M15">
-        <v>1.044175191077855</v>
+        <v>1.060581456281765</v>
       </c>
       <c r="N15">
-        <v>1.011995853001393</v>
+        <v>1.016728561717258</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9976086118196807</v>
+        <v>1.032239026038871</v>
       </c>
       <c r="D16">
-        <v>1.039182630754263</v>
+        <v>1.05474370254765</v>
       </c>
       <c r="E16">
-        <v>1.017241668332865</v>
+        <v>1.04321133490588</v>
       </c>
       <c r="F16">
-        <v>1.032191984703938</v>
+        <v>1.0575889949644</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05366034070579</v>
+        <v>1.04454691652206</v>
       </c>
       <c r="J16">
-        <v>1.025840341431761</v>
+        <v>1.038581655532809</v>
       </c>
       <c r="K16">
-        <v>1.052844011924273</v>
+        <v>1.058115719808023</v>
       </c>
       <c r="L16">
-        <v>1.031270659486131</v>
+        <v>1.046623342341616</v>
       </c>
       <c r="M16">
-        <v>1.04596830655283</v>
+        <v>1.060951293260827</v>
       </c>
       <c r="N16">
-        <v>1.012463206517373</v>
+        <v>1.016822353787259</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9992175784636435</v>
+        <v>1.032553215771735</v>
       </c>
       <c r="D17">
-        <v>1.040467271229888</v>
+        <v>1.054999429082986</v>
       </c>
       <c r="E17">
-        <v>1.018548512694491</v>
+        <v>1.043487343312213</v>
       </c>
       <c r="F17">
-        <v>1.033637866929185</v>
+        <v>1.057892089094107</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054227284440939</v>
+        <v>1.044631240173203</v>
       </c>
       <c r="J17">
-        <v>1.02670585721706</v>
+        <v>1.038758055538154</v>
       </c>
       <c r="K17">
-        <v>1.05380111067134</v>
+        <v>1.058300366253669</v>
       </c>
       <c r="L17">
-        <v>1.032238951938926</v>
+        <v>1.046827296089925</v>
       </c>
       <c r="M17">
-        <v>1.047080733849869</v>
+        <v>1.061183369304109</v>
       </c>
       <c r="N17">
-        <v>1.012752935890829</v>
+        <v>1.016881181645929</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.000149728225883</v>
+        <v>1.032736561064279</v>
       </c>
       <c r="D18">
-        <v>1.041211751146875</v>
+        <v>1.055148628815933</v>
       </c>
       <c r="E18">
-        <v>1.019306390846615</v>
+        <v>1.04364845058636</v>
       </c>
       <c r="F18">
-        <v>1.034476199295764</v>
+        <v>1.058068988736999</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054554615048982</v>
+        <v>1.04468029552812</v>
       </c>
       <c r="J18">
-        <v>1.027207080201994</v>
+        <v>1.038860949224925</v>
       </c>
       <c r="K18">
-        <v>1.054355111897259</v>
+        <v>1.058408023906721</v>
       </c>
       <c r="L18">
-        <v>1.032799989368593</v>
+        <v>1.046946294211829</v>
       </c>
       <c r="M18">
-        <v>1.047725230377994</v>
+        <v>1.061318766140186</v>
       </c>
       <c r="N18">
-        <v>1.012920717689135</v>
+        <v>1.016915492831828</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.000466506699701</v>
+        <v>1.032799091219869</v>
       </c>
       <c r="D19">
-        <v>1.041464789163486</v>
+        <v>1.055199508581939</v>
       </c>
       <c r="E19">
-        <v>1.019564073306926</v>
+        <v>1.043703403658929</v>
       </c>
       <c r="F19">
-        <v>1.034761206438404</v>
+        <v>1.058129325529383</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054665661395185</v>
+        <v>1.044697000193151</v>
       </c>
       <c r="J19">
-        <v>1.02737737731012</v>
+        <v>1.038896033705364</v>
       </c>
       <c r="K19">
-        <v>1.054543296679724</v>
+        <v>1.058444724957616</v>
       </c>
       <c r="L19">
-        <v>1.032990659385653</v>
+        <v>1.046986875445732</v>
       </c>
       <c r="M19">
-        <v>1.04794425487582</v>
+        <v>1.061364938133196</v>
       </c>
       <c r="N19">
-        <v>1.012977723455189</v>
+        <v>1.016927191687439</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9990456099340469</v>
+        <v>1.032519497512652</v>
       </c>
       <c r="D20">
-        <v>1.040329943049582</v>
+        <v>1.054971988020541</v>
       </c>
       <c r="E20">
-        <v>1.018408756041218</v>
+        <v>1.043457718184604</v>
       </c>
       <c r="F20">
-        <v>1.033483259737615</v>
+        <v>1.057859558572535</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054166805200639</v>
+        <v>1.04462220640101</v>
       </c>
       <c r="J20">
-        <v>1.026613371355731</v>
+        <v>1.038739129213982</v>
       </c>
       <c r="K20">
-        <v>1.05369886515352</v>
+        <v>1.058280559924725</v>
       </c>
       <c r="L20">
-        <v>1.032135453003824</v>
+        <v>1.046805410115341</v>
       </c>
       <c r="M20">
-        <v>1.046961834171009</v>
+        <v>1.061158466541654</v>
       </c>
       <c r="N20">
-        <v>1.012721976596881</v>
+        <v>1.016874870188138</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9943506564171325</v>
+        <v>1.031611499546909</v>
       </c>
       <c r="D21">
-        <v>1.036583028861187</v>
+        <v>1.054232757072507</v>
       </c>
       <c r="E21">
-        <v>1.014600530713725</v>
+        <v>1.042660341665144</v>
       </c>
       <c r="F21">
-        <v>1.029268695621861</v>
+        <v>1.056983817467785</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052505152930006</v>
+        <v>1.044377528058671</v>
       </c>
       <c r="J21">
-        <v>1.024086488091978</v>
+        <v>1.038229050447901</v>
       </c>
       <c r="K21">
-        <v>1.05090295899901</v>
+        <v>1.057746335968991</v>
       </c>
       <c r="L21">
-        <v>1.029310472456019</v>
+        <v>1.046215867724865</v>
       </c>
       <c r="M21">
-        <v>1.043715999157296</v>
+        <v>1.06048757353996</v>
       </c>
       <c r="N21">
-        <v>1.011876104370533</v>
+        <v>1.016704744217423</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9913384513810922</v>
+        <v>1.031041371880689</v>
       </c>
       <c r="D22">
-        <v>1.034181636117582</v>
+        <v>1.053768336894492</v>
       </c>
       <c r="E22">
-        <v>1.012164579024802</v>
+        <v>1.042160060378134</v>
       </c>
       <c r="F22">
-        <v>1.026571188990641</v>
+        <v>1.056434209941952</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051429053292523</v>
+        <v>1.044222531422413</v>
       </c>
       <c r="J22">
-        <v>1.022463572776495</v>
+        <v>1.037908375673625</v>
       </c>
       <c r="K22">
-        <v>1.049105056856798</v>
+        <v>1.057410067449947</v>
       </c>
       <c r="L22">
-        <v>1.027498844595006</v>
+        <v>1.045845528050205</v>
       </c>
       <c r="M22">
-        <v>1.041634024790852</v>
+        <v>1.0600660463248</v>
       </c>
       <c r="N22">
-        <v>1.011332837664701</v>
+        <v>1.016597763529362</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9929411570024232</v>
+        <v>1.03134353407268</v>
       </c>
       <c r="D23">
-        <v>1.035459081114549</v>
+        <v>1.054014499651252</v>
       </c>
       <c r="E23">
-        <v>1.013459968117229</v>
+        <v>1.042425167718217</v>
       </c>
       <c r="F23">
-        <v>1.028005822519863</v>
+        <v>1.056725471238329</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052002541112753</v>
+        <v>1.044304807496037</v>
       </c>
       <c r="J23">
-        <v>1.023327227989662</v>
+        <v>1.038078367968425</v>
       </c>
       <c r="K23">
-        <v>1.050062033071219</v>
+        <v>1.057588365302379</v>
       </c>
       <c r="L23">
-        <v>1.028462666084803</v>
+        <v>1.046041820419817</v>
       </c>
       <c r="M23">
-        <v>1.042741717135116</v>
+        <v>1.060289477806875</v>
       </c>
       <c r="N23">
-        <v>1.011621942960683</v>
+        <v>1.016654477350041</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9991233346484534</v>
+        <v>1.032534733084037</v>
       </c>
       <c r="D24">
-        <v>1.040392010645668</v>
+        <v>1.054984387335948</v>
       </c>
       <c r="E24">
-        <v>1.018471919577711</v>
+        <v>1.043471104145673</v>
       </c>
       <c r="F24">
-        <v>1.033553135581175</v>
+        <v>1.057874257375486</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054194143532153</v>
+        <v>1.044626288773141</v>
       </c>
       <c r="J24">
-        <v>1.026655172899213</v>
+        <v>1.038747681197496</v>
       </c>
       <c r="K24">
-        <v>1.053745078644496</v>
+        <v>1.058289509686818</v>
       </c>
       <c r="L24">
-        <v>1.032182231292889</v>
+        <v>1.046815299336154</v>
       </c>
       <c r="M24">
-        <v>1.047015573283252</v>
+        <v>1.061169718933125</v>
       </c>
       <c r="N24">
-        <v>1.012735969510782</v>
+        <v>1.016877722070817</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.006050404987857</v>
+        <v>1.033920331610462</v>
       </c>
       <c r="D25">
-        <v>1.045927883558991</v>
+        <v>1.056111401359218</v>
       </c>
       <c r="E25">
-        <v>1.024117047441654</v>
+        <v>1.044689407779608</v>
       </c>
       <c r="F25">
-        <v>1.039794370456572</v>
+        <v>1.059211665557939</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056606134377498</v>
+        <v>1.044994278139955</v>
       </c>
       <c r="J25">
-        <v>1.03037585054091</v>
+        <v>1.039524477145652</v>
       </c>
       <c r="K25">
-        <v>1.05785273755631</v>
+        <v>1.059101436641502</v>
       </c>
       <c r="L25">
-        <v>1.036352167483436</v>
+        <v>1.04771425976605</v>
       </c>
       <c r="M25">
-        <v>1.051804813657201</v>
+        <v>1.062192391757575</v>
       </c>
       <c r="N25">
-        <v>1.013981400403434</v>
+        <v>1.017136700702212</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_250/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_250/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035028059928562</v>
+        <v>1.011391971523088</v>
       </c>
       <c r="D2">
-        <v>1.057011448613013</v>
+        <v>1.050201274193375</v>
       </c>
       <c r="E2">
-        <v>1.04566472178648</v>
+        <v>1.028491918124634</v>
       </c>
       <c r="F2">
-        <v>1.060281771490329</v>
+        <v>1.044625730044393</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045283661352341</v>
+        <v>1.058429436132204</v>
       </c>
       <c r="J2">
-        <v>1.040144076187173</v>
+        <v>1.033237208762566</v>
       </c>
       <c r="K2">
-        <v>1.059747587309296</v>
+        <v>1.0610028738225</v>
       </c>
       <c r="L2">
-        <v>1.048432325941727</v>
+        <v>1.039568088401845</v>
       </c>
       <c r="M2">
-        <v>1.063008976688834</v>
+        <v>1.055496489257866</v>
       </c>
       <c r="N2">
-        <v>1.017343175891039</v>
+        <v>1.0149390594877</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.035833833300696</v>
+        <v>1.01517123402885</v>
       </c>
       <c r="D3">
-        <v>1.057665588844467</v>
+        <v>1.053226384032468</v>
       </c>
       <c r="E3">
-        <v>1.046374937793173</v>
+        <v>1.031599111770482</v>
       </c>
       <c r="F3">
-        <v>1.061060692479221</v>
+        <v>1.048053982471237</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045491370423923</v>
+        <v>1.059697473603531</v>
       </c>
       <c r="J3">
-        <v>1.040593953281818</v>
+        <v>1.035256689826565</v>
       </c>
       <c r="K3">
-        <v>1.060215885651222</v>
+        <v>1.063220675103033</v>
       </c>
       <c r="L3">
-        <v>1.04895429187881</v>
+        <v>1.04184303085885</v>
       </c>
       <c r="M3">
-        <v>1.063602382099445</v>
+        <v>1.058106818557662</v>
       </c>
       <c r="N3">
-        <v>1.017493037134781</v>
+        <v>1.015614839095755</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036355889862425</v>
+        <v>1.017572989892153</v>
       </c>
       <c r="D4">
-        <v>1.058089138637627</v>
+        <v>1.055149278898502</v>
       </c>
       <c r="E4">
-        <v>1.046835432628432</v>
+        <v>1.033579034023682</v>
       </c>
       <c r="F4">
-        <v>1.061565586365778</v>
+        <v>1.050237029541274</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04562465181476</v>
+        <v>1.060492890245827</v>
       </c>
       <c r="J4">
-        <v>1.040885042955679</v>
+        <v>1.036537613911185</v>
       </c>
       <c r="K4">
-        <v>1.06051849634747</v>
+        <v>1.064624723242658</v>
       </c>
       <c r="L4">
-        <v>1.049292300960236</v>
+        <v>1.043288401630605</v>
       </c>
       <c r="M4">
-        <v>1.063986572322483</v>
+        <v>1.0597647107845</v>
       </c>
       <c r="N4">
-        <v>1.017589977699219</v>
+        <v>1.016043409464744</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03657552043244</v>
+        <v>1.018572543154645</v>
       </c>
       <c r="D5">
-        <v>1.058267263319815</v>
+        <v>1.055949592296547</v>
       </c>
       <c r="E5">
-        <v>1.047029247172702</v>
+        <v>1.034404262597447</v>
       </c>
       <c r="F5">
-        <v>1.061778052288148</v>
+        <v>1.051146571746549</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045680414191537</v>
+        <v>1.060821382521844</v>
       </c>
       <c r="J5">
-        <v>1.041007413154273</v>
+        <v>1.037070085798462</v>
       </c>
       <c r="K5">
-        <v>1.060645614219436</v>
+        <v>1.065207718503239</v>
       </c>
       <c r="L5">
-        <v>1.049434461252326</v>
+        <v>1.043889811534236</v>
       </c>
       <c r="M5">
-        <v>1.064148136148064</v>
+        <v>1.06045441023618</v>
       </c>
       <c r="N5">
-        <v>1.017630723940533</v>
+        <v>1.016221545746415</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03661240658502</v>
+        <v>1.018739786478285</v>
       </c>
       <c r="D6">
-        <v>1.05829717495175</v>
+        <v>1.056083500799732</v>
       </c>
       <c r="E6">
-        <v>1.047061802479321</v>
+        <v>1.034542409753908</v>
       </c>
       <c r="F6">
-        <v>1.061813738418086</v>
+        <v>1.051298812946716</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045689761131738</v>
+        <v>1.060876194768198</v>
       </c>
       <c r="J6">
-        <v>1.041027959382734</v>
+        <v>1.037159140943533</v>
       </c>
       <c r="K6">
-        <v>1.060666951978688</v>
+        <v>1.06530518436214</v>
       </c>
       <c r="L6">
-        <v>1.04945833414038</v>
+        <v>1.043990430478118</v>
       </c>
       <c r="M6">
-        <v>1.064175266321325</v>
+        <v>1.060569792171323</v>
       </c>
       <c r="N6">
-        <v>1.017637564956152</v>
+        <v>1.016251337685842</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036358823958261</v>
+        <v>1.017586385429541</v>
       </c>
       <c r="D7">
-        <v>1.058091518498073</v>
+        <v>1.05516000418023</v>
       </c>
       <c r="E7">
-        <v>1.046838021515973</v>
+        <v>1.033590088521298</v>
       </c>
       <c r="F7">
-        <v>1.061568424529114</v>
+        <v>1.050249214851271</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045625397972983</v>
+        <v>1.060497302625158</v>
       </c>
       <c r="J7">
-        <v>1.040886678089211</v>
+        <v>1.036544752317937</v>
       </c>
       <c r="K7">
-        <v>1.060520195296317</v>
+        <v>1.064632541599624</v>
       </c>
       <c r="L7">
-        <v>1.049294200274139</v>
+        <v>1.043296461946286</v>
       </c>
       <c r="M7">
-        <v>1.063988730950962</v>
+        <v>1.059773954944195</v>
       </c>
       <c r="N7">
-        <v>1.017590522182829</v>
+        <v>1.016045797661649</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035300235580517</v>
+        <v>1.012678427251353</v>
       </c>
       <c r="D8">
-        <v>1.05723245971859</v>
+        <v>1.051230902079971</v>
       </c>
       <c r="E8">
-        <v>1.04590454730874</v>
+        <v>1.029548478644833</v>
       </c>
       <c r="F8">
-        <v>1.060544828016361</v>
+        <v>1.045791767065793</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045354089007794</v>
+        <v>1.058863234938646</v>
       </c>
       <c r="J8">
-        <v>1.040296115734756</v>
+        <v>1.03392514036354</v>
       </c>
       <c r="K8">
-        <v>1.059905934787954</v>
+        <v>1.061758910444802</v>
       </c>
       <c r="L8">
-        <v>1.048608671578133</v>
+        <v>1.040342536714407</v>
       </c>
       <c r="M8">
-        <v>1.063209474791101</v>
+        <v>1.056385227587499</v>
       </c>
       <c r="N8">
-        <v>1.017393828065536</v>
+        <v>1.015169274869038</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.033440056459146</v>
+        <v>1.00368075471465</v>
       </c>
       <c r="D9">
-        <v>1.055720902557661</v>
+        <v>1.044033268930181</v>
       </c>
       <c r="E9">
-        <v>1.044266913243713</v>
+        <v>1.022182387505777</v>
       </c>
       <c r="F9">
-        <v>1.058747953136286</v>
+        <v>1.037656280607958</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044867468968083</v>
+        <v>1.055786685192899</v>
       </c>
       <c r="J9">
-        <v>1.039255443193112</v>
+        <v>1.029104202239876</v>
       </c>
       <c r="K9">
-        <v>1.058820462358437</v>
+        <v>1.056450165902575</v>
       </c>
       <c r="L9">
-        <v>1.047402757038516</v>
+        <v>1.034925538309626</v>
       </c>
       <c r="M9">
-        <v>1.061838067135487</v>
+        <v>1.050166588060876</v>
       </c>
       <c r="N9">
-        <v>1.017047021177872</v>
+        <v>1.013555753786352</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032203530947369</v>
+        <v>0.997425915554049</v>
       </c>
       <c r="D10">
-        <v>1.05471480828291</v>
+        <v>1.039036793869904</v>
       </c>
       <c r="E10">
-        <v>1.043180159074576</v>
+        <v>1.017093382566114</v>
       </c>
       <c r="F10">
-        <v>1.057554757340729</v>
+        <v>1.032027898268299</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044537369677321</v>
+        <v>1.053595812635064</v>
       </c>
       <c r="J10">
-        <v>1.038561721010026</v>
+        <v>1.025742035170035</v>
       </c>
       <c r="K10">
-        <v>1.058094847135318</v>
+        <v>1.052735268999988</v>
       </c>
       <c r="L10">
-        <v>1.046600298424307</v>
+        <v>1.031160720135357</v>
       </c>
       <c r="M10">
-        <v>1.060925070644591</v>
+        <v>1.045841994997046</v>
       </c>
       <c r="N10">
-        <v>1.01681570539882</v>
+        <v>1.012430298587311</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.031668976356069</v>
+        <v>0.9946515486726033</v>
       </c>
       <c r="D11">
-        <v>1.054279566108471</v>
+        <v>1.036823021652916</v>
       </c>
       <c r="E11">
-        <v>1.042710793481823</v>
+        <v>1.014844173982167</v>
       </c>
       <c r="F11">
-        <v>1.057039236904476</v>
+        <v>1.029538430596562</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044393096042548</v>
+        <v>1.052612230917759</v>
       </c>
       <c r="J11">
-        <v>1.038261362047834</v>
+        <v>1.024248534695985</v>
       </c>
       <c r="K11">
-        <v>1.057780201287652</v>
+        <v>1.051082388053783</v>
       </c>
       <c r="L11">
-        <v>1.046253196001099</v>
+        <v>1.029491477216081</v>
       </c>
       <c r="M11">
-        <v>1.060530057666563</v>
+        <v>1.043923996396562</v>
       </c>
       <c r="N11">
-        <v>1.01671552261301</v>
+        <v>1.011930349425193</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.031470551342027</v>
+        <v>0.993610646141258</v>
       </c>
       <c r="D12">
-        <v>1.054117960462503</v>
+        <v>1.035992880940524</v>
       </c>
       <c r="E12">
-        <v>1.042536633411119</v>
+        <v>1.01400156074528</v>
       </c>
       <c r="F12">
-        <v>1.056847923294201</v>
+        <v>1.028605528256232</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044339306223258</v>
+        <v>1.05224148050064</v>
       </c>
       <c r="J12">
-        <v>1.038149800772922</v>
+        <v>1.023687898252456</v>
       </c>
       <c r="K12">
-        <v>1.057663261869348</v>
+        <v>1.050461541869277</v>
       </c>
       <c r="L12">
-        <v>1.046124323444267</v>
+        <v>1.02886534086863</v>
       </c>
       <c r="M12">
-        <v>1.060383382202323</v>
+        <v>1.043204472195324</v>
       </c>
       <c r="N12">
-        <v>1.01667830750512</v>
+        <v>1.011742676728371</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.031513108162721</v>
+        <v>0.9938344007320288</v>
       </c>
       <c r="D13">
-        <v>1.054152622552414</v>
+        <v>1.036171308958402</v>
       </c>
       <c r="E13">
-        <v>1.042573983014803</v>
+        <v>1.014182633024598</v>
       </c>
       <c r="F13">
-        <v>1.05688895282082</v>
+        <v>1.028806015842662</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044350853365293</v>
+        <v>1.052321254920365</v>
       </c>
       <c r="J13">
-        <v>1.038173730778894</v>
+        <v>1.023808426698031</v>
       </c>
       <c r="K13">
-        <v>1.057688348729564</v>
+        <v>1.050595031323015</v>
       </c>
       <c r="L13">
-        <v>1.046151964453083</v>
+        <v>1.028999929483051</v>
       </c>
       <c r="M13">
-        <v>1.060414842298558</v>
+        <v>1.043359138103428</v>
       </c>
       <c r="N13">
-        <v>1.016686290389418</v>
+        <v>1.011783023498608</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.031652571772016</v>
+        <v>0.9945657218675333</v>
       </c>
       <c r="D14">
-        <v>1.054266206444717</v>
+        <v>1.036754563805225</v>
       </c>
       <c r="E14">
-        <v>1.042696393607083</v>
+        <v>1.014774671106439</v>
       </c>
       <c r="F14">
-        <v>1.057023419307118</v>
+        <v>1.029461485968813</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044388653837332</v>
+        <v>1.052581695765773</v>
       </c>
       <c r="J14">
-        <v>1.038252140239953</v>
+        <v>1.024202313692709</v>
       </c>
       <c r="K14">
-        <v>1.057770536374688</v>
+        <v>1.051031210732362</v>
       </c>
       <c r="L14">
-        <v>1.046242542189059</v>
+        <v>1.029439846557694</v>
       </c>
       <c r="M14">
-        <v>1.060517932397764</v>
+        <v>1.043864666633249</v>
       </c>
       <c r="N14">
-        <v>1.016712446454161</v>
+        <v>1.011914876953818</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.03173851749736</v>
+        <v>0.9950149232156973</v>
       </c>
       <c r="D15">
-        <v>1.054336197597162</v>
+        <v>1.037112877444273</v>
       </c>
       <c r="E15">
-        <v>1.042771839149804</v>
+        <v>1.015138487664186</v>
       </c>
       <c r="F15">
-        <v>1.057106291620481</v>
+        <v>1.029864245277915</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044411917459159</v>
+        <v>1.052741440955166</v>
       </c>
       <c r="J15">
-        <v>1.038300451653816</v>
+        <v>1.02444421382975</v>
       </c>
       <c r="K15">
-        <v>1.057821166205898</v>
+        <v>1.051299034644813</v>
       </c>
       <c r="L15">
-        <v>1.04629835768576</v>
+        <v>1.029710077644173</v>
       </c>
       <c r="M15">
-        <v>1.060581456281765</v>
+        <v>1.044175191077855</v>
       </c>
       <c r="N15">
-        <v>1.016728561717258</v>
+        <v>1.011995853001393</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.032239026038871</v>
+        <v>0.99760861181968</v>
       </c>
       <c r="D16">
-        <v>1.05474370254765</v>
+        <v>1.039182630754262</v>
       </c>
       <c r="E16">
-        <v>1.04321133490588</v>
+        <v>1.017241668332864</v>
       </c>
       <c r="F16">
-        <v>1.0575889949644</v>
+        <v>1.032191984703938</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04454691652206</v>
+        <v>1.053660340705789</v>
       </c>
       <c r="J16">
-        <v>1.038581655532809</v>
+        <v>1.02584034143176</v>
       </c>
       <c r="K16">
-        <v>1.058115719808023</v>
+        <v>1.052844011924273</v>
       </c>
       <c r="L16">
-        <v>1.046623342341616</v>
+        <v>1.03127065948613</v>
       </c>
       <c r="M16">
-        <v>1.060951293260827</v>
+        <v>1.04596830655283</v>
       </c>
       <c r="N16">
-        <v>1.016822353787259</v>
+        <v>1.012463206517373</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032553215771735</v>
+        <v>0.9992175784636429</v>
       </c>
       <c r="D17">
-        <v>1.054999429082986</v>
+        <v>1.040467271229887</v>
       </c>
       <c r="E17">
-        <v>1.043487343312213</v>
+        <v>1.01854851269449</v>
       </c>
       <c r="F17">
-        <v>1.057892089094107</v>
+        <v>1.033637866929184</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044631240173203</v>
+        <v>1.054227284440939</v>
       </c>
       <c r="J17">
-        <v>1.038758055538154</v>
+        <v>1.026705857217059</v>
       </c>
       <c r="K17">
-        <v>1.058300366253669</v>
+        <v>1.053801110671339</v>
       </c>
       <c r="L17">
-        <v>1.046827296089925</v>
+        <v>1.032238951938925</v>
       </c>
       <c r="M17">
-        <v>1.061183369304109</v>
+        <v>1.047080733849868</v>
       </c>
       <c r="N17">
-        <v>1.016881181645929</v>
+        <v>1.012752935890829</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.032736561064279</v>
+        <v>1.000149728225883</v>
       </c>
       <c r="D18">
-        <v>1.055148628815933</v>
+        <v>1.041211751146875</v>
       </c>
       <c r="E18">
-        <v>1.04364845058636</v>
+        <v>1.019306390846615</v>
       </c>
       <c r="F18">
-        <v>1.058068988736999</v>
+        <v>1.034476199295764</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04468029552812</v>
+        <v>1.054554615048982</v>
       </c>
       <c r="J18">
-        <v>1.038860949224925</v>
+        <v>1.027207080201994</v>
       </c>
       <c r="K18">
-        <v>1.058408023906721</v>
+        <v>1.05435511189726</v>
       </c>
       <c r="L18">
-        <v>1.046946294211829</v>
+        <v>1.032799989368592</v>
       </c>
       <c r="M18">
-        <v>1.061318766140186</v>
+        <v>1.047725230377994</v>
       </c>
       <c r="N18">
-        <v>1.016915492831828</v>
+        <v>1.012920717689135</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.032799091219869</v>
+        <v>1.000466506699701</v>
       </c>
       <c r="D19">
-        <v>1.055199508581939</v>
+        <v>1.041464789163487</v>
       </c>
       <c r="E19">
-        <v>1.043703403658929</v>
+        <v>1.019564073306926</v>
       </c>
       <c r="F19">
-        <v>1.058129325529383</v>
+        <v>1.034761206438404</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044697000193151</v>
+        <v>1.054665661395185</v>
       </c>
       <c r="J19">
-        <v>1.038896033705364</v>
+        <v>1.02737737731012</v>
       </c>
       <c r="K19">
-        <v>1.058444724957616</v>
+        <v>1.054543296679724</v>
       </c>
       <c r="L19">
-        <v>1.046986875445732</v>
+        <v>1.032990659385653</v>
       </c>
       <c r="M19">
-        <v>1.061364938133196</v>
+        <v>1.04794425487582</v>
       </c>
       <c r="N19">
-        <v>1.016927191687439</v>
+        <v>1.012977723455189</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.032519497512652</v>
+        <v>0.999045609934046</v>
       </c>
       <c r="D20">
-        <v>1.054971988020541</v>
+        <v>1.040329943049581</v>
       </c>
       <c r="E20">
-        <v>1.043457718184604</v>
+        <v>1.018408756041217</v>
       </c>
       <c r="F20">
-        <v>1.057859558572535</v>
+        <v>1.033483259737614</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04462220640101</v>
+        <v>1.054166805200638</v>
       </c>
       <c r="J20">
-        <v>1.038739129213982</v>
+        <v>1.02661337135573</v>
       </c>
       <c r="K20">
-        <v>1.058280559924725</v>
+        <v>1.053698865153519</v>
       </c>
       <c r="L20">
-        <v>1.046805410115341</v>
+        <v>1.032135453003823</v>
       </c>
       <c r="M20">
-        <v>1.061158466541654</v>
+        <v>1.046961834171007</v>
       </c>
       <c r="N20">
-        <v>1.016874870188138</v>
+        <v>1.012721976596881</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.031611499546909</v>
+        <v>0.9943506564171323</v>
       </c>
       <c r="D21">
-        <v>1.054232757072507</v>
+        <v>1.036583028861187</v>
       </c>
       <c r="E21">
-        <v>1.042660341665144</v>
+        <v>1.014600530713725</v>
       </c>
       <c r="F21">
-        <v>1.056983817467785</v>
+        <v>1.029268695621861</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044377528058671</v>
+        <v>1.052505152930006</v>
       </c>
       <c r="J21">
-        <v>1.038229050447901</v>
+        <v>1.024086488091978</v>
       </c>
       <c r="K21">
-        <v>1.057746335968991</v>
+        <v>1.050902958999009</v>
       </c>
       <c r="L21">
-        <v>1.046215867724865</v>
+        <v>1.029310472456018</v>
       </c>
       <c r="M21">
-        <v>1.06048757353996</v>
+        <v>1.043715999157296</v>
       </c>
       <c r="N21">
-        <v>1.016704744217423</v>
+        <v>1.011876104370533</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031041371880689</v>
+        <v>0.9913384513810924</v>
       </c>
       <c r="D22">
-        <v>1.053768336894492</v>
+        <v>1.034181636117582</v>
       </c>
       <c r="E22">
-        <v>1.042160060378134</v>
+        <v>1.012164579024802</v>
       </c>
       <c r="F22">
-        <v>1.056434209941952</v>
+        <v>1.026571188990641</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044222531422413</v>
+        <v>1.051429053292523</v>
       </c>
       <c r="J22">
-        <v>1.037908375673625</v>
+        <v>1.022463572776495</v>
       </c>
       <c r="K22">
-        <v>1.057410067449947</v>
+        <v>1.049105056856799</v>
       </c>
       <c r="L22">
-        <v>1.045845528050205</v>
+        <v>1.027498844595006</v>
       </c>
       <c r="M22">
-        <v>1.0600660463248</v>
+        <v>1.041634024790852</v>
       </c>
       <c r="N22">
-        <v>1.016597763529362</v>
+        <v>1.011332837664701</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03134353407268</v>
+        <v>0.9929411570024227</v>
       </c>
       <c r="D23">
-        <v>1.054014499651252</v>
+        <v>1.035459081114548</v>
       </c>
       <c r="E23">
-        <v>1.042425167718217</v>
+        <v>1.013459968117228</v>
       </c>
       <c r="F23">
-        <v>1.056725471238329</v>
+        <v>1.028005822519862</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044304807496037</v>
+        <v>1.052002541112753</v>
       </c>
       <c r="J23">
-        <v>1.038078367968425</v>
+        <v>1.023327227989661</v>
       </c>
       <c r="K23">
-        <v>1.057588365302379</v>
+        <v>1.050062033071219</v>
       </c>
       <c r="L23">
-        <v>1.046041820419817</v>
+        <v>1.028462666084802</v>
       </c>
       <c r="M23">
-        <v>1.060289477806875</v>
+        <v>1.042741717135115</v>
       </c>
       <c r="N23">
-        <v>1.016654477350041</v>
+        <v>1.011621942960683</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.032534733084037</v>
+        <v>0.9991233346484525</v>
       </c>
       <c r="D24">
-        <v>1.054984387335948</v>
+        <v>1.040392010645668</v>
       </c>
       <c r="E24">
-        <v>1.043471104145673</v>
+        <v>1.01847191957771</v>
       </c>
       <c r="F24">
-        <v>1.057874257375486</v>
+        <v>1.033553135581174</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044626288773141</v>
+        <v>1.054194143532153</v>
       </c>
       <c r="J24">
-        <v>1.038747681197496</v>
+        <v>1.026655172899213</v>
       </c>
       <c r="K24">
-        <v>1.058289509686818</v>
+        <v>1.053745078644496</v>
       </c>
       <c r="L24">
-        <v>1.046815299336154</v>
+        <v>1.032182231292888</v>
       </c>
       <c r="M24">
-        <v>1.061169718933125</v>
+        <v>1.047015573283251</v>
       </c>
       <c r="N24">
-        <v>1.016877722070817</v>
+        <v>1.012735969510781</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.033920331610462</v>
+        <v>1.006050404987856</v>
       </c>
       <c r="D25">
-        <v>1.056111401359218</v>
+        <v>1.045927883558991</v>
       </c>
       <c r="E25">
-        <v>1.044689407779608</v>
+        <v>1.024117047441653</v>
       </c>
       <c r="F25">
-        <v>1.059211665557939</v>
+        <v>1.039794370456572</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044994278139955</v>
+        <v>1.056606134377499</v>
       </c>
       <c r="J25">
-        <v>1.039524477145652</v>
+        <v>1.03037585054091</v>
       </c>
       <c r="K25">
-        <v>1.059101436641502</v>
+        <v>1.05785273755631</v>
       </c>
       <c r="L25">
-        <v>1.04771425976605</v>
+        <v>1.036352167483435</v>
       </c>
       <c r="M25">
-        <v>1.062192391757575</v>
+        <v>1.051804813657201</v>
       </c>
       <c r="N25">
-        <v>1.017136700702212</v>
+        <v>1.013981400403434</v>
       </c>
     </row>
   </sheetData>
